--- a/data/real_data/地层统计_标准分段_合并结果.xlsx
+++ b/data/real_data/地层统计_标准分段_合并结果.xlsx
@@ -1630,10 +1630,10 @@
         <v>27</v>
       </c>
       <c r="C82">
-        <v>17.2</v>
+        <v>29.4</v>
       </c>
       <c r="D82">
-        <v>17.2</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1644,10 +1644,10 @@
         <v>28</v>
       </c>
       <c r="C83">
-        <v>239.4</v>
+        <v>138</v>
       </c>
       <c r="D83">
-        <v>229.4</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
